--- a/Bases_de_Dados_(2022-2023)/Lithuania A Lyga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Lithuania A Lyga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>['11', '37']</t>
+  </si>
+  <si>
+    <t>['35', '47']</t>
   </si>
   <si>
     <t>['47']</t>
@@ -624,7 +627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK7"/>
+  <dimension ref="A1:BK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -868,7 +871,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1059,7 +1062,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1146,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT3">
         <v>3</v>
@@ -1441,7 +1444,7 @@
         <v>75</v>
       </c>
       <c r="P5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1632,7 +1635,7 @@
         <v>78</v>
       </c>
       <c r="P6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -1965,6 +1968,197 @@
       </c>
       <c r="BK7">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5290556</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44996.33333333334</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>13</v>
+      </c>
+      <c r="S8">
+        <v>14</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>2.1</v>
+      </c>
+      <c r="V8">
+        <v>2.5</v>
+      </c>
+      <c r="W8">
+        <v>1.4</v>
+      </c>
+      <c r="X8">
+        <v>2.75</v>
+      </c>
+      <c r="Y8">
+        <v>3</v>
+      </c>
+      <c r="Z8">
+        <v>1.36</v>
+      </c>
+      <c r="AA8">
+        <v>8</v>
+      </c>
+      <c r="AB8">
+        <v>1.08</v>
+      </c>
+      <c r="AC8">
+        <v>6.25</v>
+      </c>
+      <c r="AD8">
+        <v>4.4</v>
+      </c>
+      <c r="AE8">
+        <v>1.43</v>
+      </c>
+      <c r="AF8">
+        <v>1.03</v>
+      </c>
+      <c r="AG8">
+        <v>10</v>
+      </c>
+      <c r="AH8">
+        <v>1.3</v>
+      </c>
+      <c r="AI8">
+        <v>3.4</v>
+      </c>
+      <c r="AJ8">
+        <v>1.71</v>
+      </c>
+      <c r="AK8">
+        <v>2.03</v>
+      </c>
+      <c r="AL8">
+        <v>1.83</v>
+      </c>
+      <c r="AM8">
+        <v>1.83</v>
+      </c>
+      <c r="AN8">
+        <v>1.8</v>
+      </c>
+      <c r="AO8">
+        <v>1.22</v>
+      </c>
+      <c r="AP8">
+        <v>1.22</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>1.5</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>1.02</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>1.02</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>4</v>
+      </c>
+      <c r="BG8">
+        <v>6</v>
+      </c>
+      <c r="BH8">
+        <v>7</v>
+      </c>
+      <c r="BI8">
+        <v>15</v>
+      </c>
+      <c r="BJ8">
+        <v>11</v>
+      </c>
+      <c r="BK8">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Lithuania A Lyga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Lithuania A Lyga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -229,6 +229,9 @@
     <t>Kauno Žalgiris</t>
   </si>
   <si>
+    <t>Džiugas Telšiai</t>
+  </si>
+  <si>
     <t>FA Šiauliai</t>
   </si>
   <si>
@@ -238,9 +241,6 @@
     <t>Panevėžys</t>
   </si>
   <si>
-    <t>Džiugas Telšiai</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -256,6 +256,9 @@
     <t>['35', '47']</t>
   </si>
   <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -266,6 +269,12 @@
   </si>
   <si>
     <t>['26', '31', '65']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['15', '35', '57', '83']</t>
   </si>
 </sst>
 </file>
@@ -627,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK8"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -847,7 +856,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -871,7 +880,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1062,7 +1071,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1229,7 +1238,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1343,7 +1352,7 @@
         <v>3</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1420,7 +1429,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1444,7 +1453,7 @@
         <v>75</v>
       </c>
       <c r="P5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1611,7 +1620,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1635,7 +1644,7 @@
         <v>78</v>
       </c>
       <c r="P6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -1722,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
         <v>3</v>
@@ -1802,7 +1811,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2159,6 +2168,579 @@
       </c>
       <c r="BK8">
         <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5290558</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44996.52083333334</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9">
+        <v>15</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>17</v>
+      </c>
+      <c r="T9">
+        <v>1.5</v>
+      </c>
+      <c r="U9">
+        <v>2.75</v>
+      </c>
+      <c r="V9">
+        <v>11</v>
+      </c>
+      <c r="W9">
+        <v>1.25</v>
+      </c>
+      <c r="X9">
+        <v>3.5</v>
+      </c>
+      <c r="Y9">
+        <v>2.25</v>
+      </c>
+      <c r="Z9">
+        <v>1.57</v>
+      </c>
+      <c r="AA9">
+        <v>5.5</v>
+      </c>
+      <c r="AB9">
+        <v>1.12</v>
+      </c>
+      <c r="AC9">
+        <v>1.14</v>
+      </c>
+      <c r="AD9">
+        <v>7.1</v>
+      </c>
+      <c r="AE9">
+        <v>16</v>
+      </c>
+      <c r="AF9">
+        <v>1.01</v>
+      </c>
+      <c r="AG9">
+        <v>19</v>
+      </c>
+      <c r="AH9">
+        <v>1.14</v>
+      </c>
+      <c r="AI9">
+        <v>5</v>
+      </c>
+      <c r="AJ9">
+        <v>1.45</v>
+      </c>
+      <c r="AK9">
+        <v>2.45</v>
+      </c>
+      <c r="AL9">
+        <v>2.25</v>
+      </c>
+      <c r="AM9">
+        <v>1.61</v>
+      </c>
+      <c r="AN9">
+        <v>1.03</v>
+      </c>
+      <c r="AO9">
+        <v>1.1</v>
+      </c>
+      <c r="AP9">
+        <v>3.4</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>1.5</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>2.87</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>2.87</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>4</v>
+      </c>
+      <c r="BG9">
+        <v>2</v>
+      </c>
+      <c r="BH9">
+        <v>15</v>
+      </c>
+      <c r="BI9">
+        <v>3</v>
+      </c>
+      <c r="BJ9">
+        <v>19</v>
+      </c>
+      <c r="BK9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5290559</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44997.41666666666</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <v>11</v>
+      </c>
+      <c r="T10">
+        <v>2.2</v>
+      </c>
+      <c r="U10">
+        <v>2.2</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10">
+        <v>1.4</v>
+      </c>
+      <c r="X10">
+        <v>2.75</v>
+      </c>
+      <c r="Y10">
+        <v>2.75</v>
+      </c>
+      <c r="Z10">
+        <v>1.4</v>
+      </c>
+      <c r="AA10">
+        <v>8</v>
+      </c>
+      <c r="AB10">
+        <v>1.08</v>
+      </c>
+      <c r="AC10">
+        <v>2.07</v>
+      </c>
+      <c r="AD10">
+        <v>3.35</v>
+      </c>
+      <c r="AE10">
+        <v>2.97</v>
+      </c>
+      <c r="AF10">
+        <v>1.02</v>
+      </c>
+      <c r="AG10">
+        <v>11</v>
+      </c>
+      <c r="AH10">
+        <v>1.29</v>
+      </c>
+      <c r="AI10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ10">
+        <v>1.92</v>
+      </c>
+      <c r="AK10">
+        <v>1.88</v>
+      </c>
+      <c r="AL10">
+        <v>1.8</v>
+      </c>
+      <c r="AM10">
+        <v>1.91</v>
+      </c>
+      <c r="AN10">
+        <v>1.19</v>
+      </c>
+      <c r="AO10">
+        <v>1.22</v>
+      </c>
+      <c r="AP10">
+        <v>1.85</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>1.5</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>1.19</v>
+      </c>
+      <c r="AW10">
+        <v>1.19</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>2</v>
+      </c>
+      <c r="BG10">
+        <v>10</v>
+      </c>
+      <c r="BH10">
+        <v>6</v>
+      </c>
+      <c r="BI10">
+        <v>9</v>
+      </c>
+      <c r="BJ10">
+        <v>8</v>
+      </c>
+      <c r="BK10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5290560</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44997.53819444445</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>9</v>
+      </c>
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>3.75</v>
+      </c>
+      <c r="U11">
+        <v>2.05</v>
+      </c>
+      <c r="V11">
+        <v>2.88</v>
+      </c>
+      <c r="W11">
+        <v>1.44</v>
+      </c>
+      <c r="X11">
+        <v>2.63</v>
+      </c>
+      <c r="Y11">
+        <v>3.25</v>
+      </c>
+      <c r="Z11">
+        <v>1.33</v>
+      </c>
+      <c r="AA11">
+        <v>9</v>
+      </c>
+      <c r="AB11">
+        <v>1.07</v>
+      </c>
+      <c r="AC11">
+        <v>3</v>
+      </c>
+      <c r="AD11">
+        <v>3.3</v>
+      </c>
+      <c r="AE11">
+        <v>2.15</v>
+      </c>
+      <c r="AF11">
+        <v>1.04</v>
+      </c>
+      <c r="AG11">
+        <v>9</v>
+      </c>
+      <c r="AH11">
+        <v>1.36</v>
+      </c>
+      <c r="AI11">
+        <v>3</v>
+      </c>
+      <c r="AJ11">
+        <v>1.97</v>
+      </c>
+      <c r="AK11">
+        <v>1.69</v>
+      </c>
+      <c r="AL11">
+        <v>1.91</v>
+      </c>
+      <c r="AM11">
+        <v>1.8</v>
+      </c>
+      <c r="AN11">
+        <v>1.55</v>
+      </c>
+      <c r="AO11">
+        <v>1.27</v>
+      </c>
+      <c r="AP11">
+        <v>1.3</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>3</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>3</v>
+      </c>
+      <c r="AU11">
+        <v>1.31</v>
+      </c>
+      <c r="AV11">
+        <v>2.16</v>
+      </c>
+      <c r="AW11">
+        <v>3.47</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>4</v>
+      </c>
+      <c r="BG11">
+        <v>8</v>
+      </c>
+      <c r="BH11">
+        <v>3</v>
+      </c>
+      <c r="BI11">
+        <v>12</v>
+      </c>
+      <c r="BJ11">
+        <v>7</v>
+      </c>
+      <c r="BK11">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Lithuania A Lyga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Lithuania A Lyga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -259,6 +259,12 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['36', '48', '51']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -275,6 +281,12 @@
   </si>
   <si>
     <t>['15', '35', '57', '83']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['22']</t>
   </si>
 </sst>
 </file>
@@ -636,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK11"/>
+  <dimension ref="A1:BK13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -880,7 +892,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1071,7 +1083,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1453,7 +1465,7 @@
         <v>75</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1644,7 +1656,7 @@
         <v>78</v>
       </c>
       <c r="P6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -2408,7 +2420,7 @@
         <v>75</v>
       </c>
       <c r="P10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2599,7 +2611,7 @@
         <v>75</v>
       </c>
       <c r="P11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -2741,6 +2753,388 @@
       </c>
       <c r="BK11">
         <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5290562</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44999.54166666666</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>11</v>
+      </c>
+      <c r="S12">
+        <v>16</v>
+      </c>
+      <c r="T12">
+        <v>4.55</v>
+      </c>
+      <c r="U12">
+        <v>2.05</v>
+      </c>
+      <c r="V12">
+        <v>2.44</v>
+      </c>
+      <c r="W12">
+        <v>1.41</v>
+      </c>
+      <c r="X12">
+        <v>2.61</v>
+      </c>
+      <c r="Y12">
+        <v>2.94</v>
+      </c>
+      <c r="Z12">
+        <v>1.33</v>
+      </c>
+      <c r="AA12">
+        <v>7.2</v>
+      </c>
+      <c r="AB12">
+        <v>1.06</v>
+      </c>
+      <c r="AC12">
+        <v>3.38</v>
+      </c>
+      <c r="AD12">
+        <v>3.25</v>
+      </c>
+      <c r="AE12">
+        <v>2.07</v>
+      </c>
+      <c r="AF12">
+        <v>1.03</v>
+      </c>
+      <c r="AG12">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH12">
+        <v>1.32</v>
+      </c>
+      <c r="AI12">
+        <v>2.98</v>
+      </c>
+      <c r="AJ12">
+        <v>2.15</v>
+      </c>
+      <c r="AK12">
+        <v>1.65</v>
+      </c>
+      <c r="AL12">
+        <v>1.85</v>
+      </c>
+      <c r="AM12">
+        <v>1.81</v>
+      </c>
+      <c r="AN12">
+        <v>1.82</v>
+      </c>
+      <c r="AO12">
+        <v>1.27</v>
+      </c>
+      <c r="AP12">
+        <v>1.21</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>3</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>2.4</v>
+      </c>
+      <c r="AW12">
+        <v>2.4</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>6</v>
+      </c>
+      <c r="BG12">
+        <v>5</v>
+      </c>
+      <c r="BH12">
+        <v>14</v>
+      </c>
+      <c r="BI12">
+        <v>6</v>
+      </c>
+      <c r="BJ12">
+        <v>20</v>
+      </c>
+      <c r="BK12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5290561</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44999.625</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>8</v>
+      </c>
+      <c r="T13">
+        <v>3.4</v>
+      </c>
+      <c r="U13">
+        <v>2.05</v>
+      </c>
+      <c r="V13">
+        <v>3.05</v>
+      </c>
+      <c r="W13">
+        <v>1.47</v>
+      </c>
+      <c r="X13">
+        <v>2.5</v>
+      </c>
+      <c r="Y13">
+        <v>2.95</v>
+      </c>
+      <c r="Z13">
+        <v>1.35</v>
+      </c>
+      <c r="AA13">
+        <v>7</v>
+      </c>
+      <c r="AB13">
+        <v>1.07</v>
+      </c>
+      <c r="AC13">
+        <v>2.69</v>
+      </c>
+      <c r="AD13">
+        <v>2.91</v>
+      </c>
+      <c r="AE13">
+        <v>2.32</v>
+      </c>
+      <c r="AF13">
+        <v>1.06</v>
+      </c>
+      <c r="AG13">
+        <v>9.85</v>
+      </c>
+      <c r="AH13">
+        <v>1.33</v>
+      </c>
+      <c r="AI13">
+        <v>3.07</v>
+      </c>
+      <c r="AJ13">
+        <v>2.03</v>
+      </c>
+      <c r="AK13">
+        <v>1.71</v>
+      </c>
+      <c r="AL13">
+        <v>1.8</v>
+      </c>
+      <c r="AM13">
+        <v>1.9</v>
+      </c>
+      <c r="AN13">
+        <v>1.5</v>
+      </c>
+      <c r="AO13">
+        <v>1.32</v>
+      </c>
+      <c r="AP13">
+        <v>1.4</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>1</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>1.43</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>1.43</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>6</v>
+      </c>
+      <c r="BG13">
+        <v>6</v>
+      </c>
+      <c r="BH13">
+        <v>3</v>
+      </c>
+      <c r="BI13">
+        <v>3</v>
+      </c>
+      <c r="BJ13">
+        <v>9</v>
+      </c>
+      <c r="BK13">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Lithuania A Lyga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Lithuania A Lyga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK16"/>
+  <dimension ref="A1:BK18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>1.53</v>
@@ -3797,6 +3797,412 @@
       </c>
       <c r="BK16" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5290566</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Lithuania A Lyga</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hegelmann Litauen</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Džiugas Telšiai</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>['17', '87']</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5290567</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Lithuania A Lyga</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Dainava</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Banga</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>['69', '83']</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>8</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>11</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Lithuania A Lyga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Lithuania A Lyga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK21"/>
+  <dimension ref="A1:BK26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.33</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
         <v>3</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>1.02</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT10" t="n">
         <v>1.33</v>
@@ -2933,7 +2933,7 @@
         <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>3</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU21" t="n">
         <v>2.68</v>
@@ -4812,6 +4812,1021 @@
       </c>
       <c r="BK21" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5290571</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Lithuania A Lyga</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45016.5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Banga</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Hegelmann Litauen</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>['3', '18', '38', '66', '75']</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="n">
+        <v>5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>17</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5290572</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Lithuania A Lyga</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45017.29166666666</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Panevėžys</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>FA Šiauliai</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>['78', '85', '90+5']</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>7</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>11</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5290573</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Lithuania A Lyga</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45017.375</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Džiugas Telšiai</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Trakai</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>7</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5290574</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Lithuania A Lyga</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45017.54166666666</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Žalgiris</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Sūduva</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>['39', '56', '58', '73']</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>6</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5290575</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Lithuania A Lyga</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45018.49652777778</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Dainava</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Kauno Žalgiris</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>6</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Lithuania A Lyga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Lithuania A Lyga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK26"/>
+  <dimension ref="A1:BK31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT2" t="n">
         <v>1.33</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT3" t="n">
         <v>1.33</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.25</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>3</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT7" t="n">
         <v>1.33</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -2324,7 +2324,7 @@
         <v>2.25</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU9" t="n">
         <v>2.87</v>
@@ -2527,7 +2527,7 @@
         <v>0.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>3</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT11" t="n">
         <v>3</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU13" t="n">
         <v>1.43</v>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU14" t="n">
         <v>1.53</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT15" t="n">
         <v>3</v>
@@ -3742,10 +3742,10 @@
         <v>1.5</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>1.26</v>
@@ -3945,10 +3945,10 @@
         <v>1.5</v>
       </c>
       <c r="AS17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU17" t="n">
         <v>1.62</v>
@@ -4151,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -5827,6 +5827,1021 @@
       </c>
       <c r="BK26" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5290576</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Lithuania A Lyga</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45020.5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Hegelmann Litauen</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Panevėžys</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>['26', '32']</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>['31', '61', '68', '88']</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>9</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>12</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5290577</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Lithuania A Lyga</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45020.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>FA Šiauliai</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Žalgiris</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>9</v>
+      </c>
+      <c r="T28" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5290578</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Lithuania A Lyga</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45021.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Kauno Žalgiris</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Džiugas Telšiai</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>['55', '60', '85']</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>6</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5290579</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Lithuania A Lyga</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45021.54166666666</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Trakai</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Banga</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>7</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5290580</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Lithuania A Lyga</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45021.58333333334</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Sūduva</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Dainava</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>['20', '72']</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>6</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Lithuania A Lyga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Lithuania A Lyga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK31"/>
+  <dimension ref="A1:BK33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.67</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.67</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU13" t="n">
         <v>1.43</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT18" t="n">
         <v>0.33</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT19" t="n">
         <v>1.33</v>
@@ -5163,10 +5163,10 @@
         <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU23" t="n">
         <v>1.55</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT26" t="n">
         <v>1.33</v>
@@ -6181,7 +6181,7 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU28" t="n">
         <v>2.18</v>
@@ -6629,16 +6629,16 @@
         <v>3</v>
       </c>
       <c r="BH30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI30" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BJ30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK30" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -6841,6 +6841,412 @@
         <v>11</v>
       </c>
       <c r="BK31" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5290581</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Lithuania A Lyga</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45024.375</v>
+      </c>
+      <c r="F32" t="n">
+        <v>7</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Panevėžys</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Žalgiris</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5290582</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Lithuania A Lyga</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F33" t="n">
+        <v>7</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Dainava</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>FA Šiauliai</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>7</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK33" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Lithuania A Lyga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Lithuania A Lyga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK33"/>
+  <dimension ref="A1:BK36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT5" t="n">
         <v>3</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT14" t="n">
         <v>0.75</v>
@@ -3945,7 +3945,7 @@
         <v>1.5</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT17" t="n">
         <v>0.75</v>
@@ -4354,7 +4354,7 @@
         <v>2.33</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>3</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>2.25</v>
@@ -4760,7 +4760,7 @@
         <v>2.25</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU21" t="n">
         <v>2.68</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU24" t="n">
         <v>0.82</v>
@@ -5572,7 +5572,7 @@
         <v>2.25</v>
       </c>
       <c r="AT25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>2.55</v>
@@ -5775,7 +5775,7 @@
         <v>1.67</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU26" t="n">
         <v>1.7</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT27" t="n">
         <v>3</v>
@@ -7248,6 +7248,615 @@
       </c>
       <c r="BK33" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5290583</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Lithuania A Lyga</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45025.29166666666</v>
+      </c>
+      <c r="F34" t="n">
+        <v>7</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hegelmann Litauen</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Trakai</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5290584</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Lithuania A Lyga</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45025.375</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Džiugas Telšiai</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Sūduva</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>['6', '8']</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>11</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>16</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5290585</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Lithuania A Lyga</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45025.49652777778</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Banga</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Kauno Žalgiris</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['11', '28']</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>7</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>11</v>
+      </c>
+      <c r="T36" t="n">
+        <v>6</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Lithuania A Lyga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Lithuania A Lyga_2023.xlsx
@@ -7435,22 +7435,22 @@
         <v>0</v>
       </c>
       <c r="BF34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH34" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BI34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ34" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BK34" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -7638,22 +7638,22 @@
         <v>0</v>
       </c>
       <c r="BF35" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BG35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ35" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BK35" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
